--- a/MyTool/w1.xlsx
+++ b/MyTool/w1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rong/Desktop/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33040" yWindow="-800" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="42020" yWindow="1400" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="2">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>col1</t>
+  </si>
+  <si>
+    <t>clo2</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
@@ -347,260 +449,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A21" sqref="A21:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
